--- a/src/Data/Business.xlsx
+++ b/src/Data/Business.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samik\OneDrive\Documents\NetBeansProjects\assignment-4-xeroxstrategists\src\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A68B320-8A68-433E-899D-AB3610E2046D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3403A788-3370-426E-920E-AE5BBDC3937A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7299C4BE-89C8-E240-A97E-9F08726DA00B}"/>
   </bookViews>
@@ -441,13 +441,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -765,7 +763,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -775,10 +773,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" t="s">
         <v>73</v>
       </c>
     </row>

--- a/src/Data/Business.xlsx
+++ b/src/Data/Business.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samik\OneDrive\Documents\NetBeansProjects\assignment-4-xeroxstrategists\src\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NEU\AED - 5100\assignment-4-xeroxstrategists\src\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3403A788-3370-426E-920E-AE5BBDC3937A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71363296-167B-41F1-B9CC-676AE94104FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7299C4BE-89C8-E240-A97E-9F08726DA00B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="7" xr2:uid="{7299C4BE-89C8-E240-A97E-9F08726DA00B}"/>
   </bookViews>
   <sheets>
     <sheet name="Markets" sheetId="2" r:id="rId1"/>
@@ -36,8 +36,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -45,29 +43,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="105">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>Dell</t>
   </si>
   <si>
-    <t>Maruti</t>
-  </si>
-  <si>
     <t>Lenovo</t>
   </si>
   <si>
-    <t>Suzuki</t>
-  </si>
-  <si>
-    <t>Mac</t>
-  </si>
-  <si>
     <t>Pharmaceutical Market</t>
   </si>
   <si>
@@ -101,30 +87,12 @@
     <t>tp</t>
   </si>
   <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>Acer</t>
-  </si>
-  <si>
-    <t>Samsung</t>
-  </si>
-  <si>
-    <t>Toshiba</t>
-  </si>
-  <si>
-    <t>Sony</t>
-  </si>
-  <si>
     <t>Panasonic</t>
   </si>
   <si>
     <t>ASUS</t>
   </si>
   <si>
-    <t>LG Electronics</t>
-  </si>
-  <si>
     <t>Apple</t>
   </si>
   <si>
@@ -132,9 +100,6 @@
   </si>
   <si>
     <t>IBM</t>
-  </si>
-  <si>
-    <t>Intel</t>
   </si>
   <si>
     <t>Google</t>
@@ -760,90 +725,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27566163-79CB-BF42-9100-35479FCD0FAF}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.5" customWidth="1"/>
-    <col min="2" max="2" width="80.375" customWidth="1"/>
+    <col min="2" max="2" width="80.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -855,585 +811,585 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91774802-C8D6-2B42-99C8-792ED7C186BF}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G25"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="G1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1">
         <v>1000</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E3" s="1">
         <v>2000</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E4" s="1">
         <v>3000</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E5" s="1">
         <v>4000</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E6" s="1">
         <v>5000</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E7" s="1">
         <v>6000</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E8" s="1">
         <v>7000</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E9" s="1">
         <v>8000</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E10" s="1">
         <v>9000</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1">
         <v>10000</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E12" s="1">
         <v>11000</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E13" s="1">
         <v>12000</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E14" s="1">
         <v>13000</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E15" s="1">
         <v>14000</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E16" s="1">
         <v>15000</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E17" s="1">
         <v>16000</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E18" s="1">
         <v>17000</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E19" s="1">
         <v>18000</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E20" s="1">
         <v>19000</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E21" s="1">
         <v>20000</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E22" s="1">
         <v>21000</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E23" s="1">
         <v>22000</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E24" s="1">
         <v>23000</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E25" s="1">
         <v>24000</v>
       </c>
       <c r="F25" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1443,54 +1399,51 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD1C790-79E8-364C-9837-87F85F7B633F}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" activeCellId="1" sqref="A7 A4:A6"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.625" customWidth="1"/>
+    <col min="1" max="1" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1499,93 +1452,81 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D78BB6-8DB8-574D-BDEB-7BE76B4545B5}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B8"/>
+      <selection activeCell="A9" sqref="A9:B188"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.5" customWidth="1"/>
-    <col min="2" max="2" width="35.125" customWidth="1"/>
+    <col min="2" max="2" width="35.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1594,270 +1535,62 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666EF68C-4CA0-2C45-9E34-9A554F215325}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1870,103 +1603,103 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A9" sqref="A9:C68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="18.19921875" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1979,24 +1712,24 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="A4" sqref="A4:B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2006,34 +1739,34 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF8F78D-E19A-824E-BB4A-45388DD81A59}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="89" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView zoomScale="89" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B2" s="1">
         <v>2500</v>
@@ -2045,9 +1778,9 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B3" s="1">
         <v>2600</v>
@@ -2059,9 +1792,9 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B4" s="1">
         <v>2700</v>
@@ -2073,9 +1806,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B5" s="1">
         <v>2800</v>
@@ -2087,9 +1820,9 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B6" s="1">
         <v>2900</v>
@@ -2101,9 +1834,9 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B7" s="1">
         <v>3000</v>
@@ -2115,9 +1848,9 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B8" s="1">
         <v>3100</v>
@@ -2128,78 +1861,6 @@
       <c r="D8" s="1">
         <v>3400</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2211,32 +1872,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7477BC-E45B-4F2F-B0D0-2B03EDA1D3E8}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" customWidth="1"/>
+    <col min="1" max="1" width="27.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B2">
         <v>12000</v>
@@ -2248,9 +1909,9 @@
         <v>18500</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B3">
         <v>90000</v>
@@ -2262,9 +1923,9 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B4">
         <v>422000</v>
@@ -2276,9 +1937,9 @@
         <v>495000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B5">
         <v>430000</v>
@@ -2290,9 +1951,9 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B6">
         <v>195000</v>
@@ -2304,9 +1965,9 @@
         <v>365102</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B7">
         <v>900000</v>
@@ -2318,9 +1979,9 @@
         <v>1650000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B8">
         <v>322000</v>
@@ -2332,9 +1993,9 @@
         <v>736500</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B9">
         <v>350000</v>
@@ -2355,393 +2016,393 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99188E5-8248-0941-9247-26BA189641BF}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="B7" zoomScale="107" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:D695"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.125" customWidth="1"/>
+    <col min="1" max="1" width="28.09765625" customWidth="1"/>
     <col min="2" max="2" width="50.5" customWidth="1"/>
-    <col min="3" max="3" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
